--- a/medicine/Mort/Cimetière_communal_de_Stains/Cimetière_communal_de_Stains.xlsx
+++ b/medicine/Mort/Cimetière_communal_de_Stains/Cimetière_communal_de_Stains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Stains</t>
+          <t>Cimetière_communal_de_Stains</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Stains est un cimetière se trouvant rue du Moutier à Stains[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Stains est un cimetière se trouvant rue du Moutier à Stains.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Stains</t>
+          <t>Cimetière_communal_de_Stains</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été créé en 1836[2].
-Les deux-cents victimes du bombardement de la ville le 16 août 1943, lors de l'opération Starkey, y sont enterrées[3].
-En 2021, une quinzaine de tombes sont victimes de profanation[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été créé en 1836.
+Les deux-cents victimes du bombardement de la ville le 16 août 1943, lors de l'opération Starkey, y sont enterrées.
+En 2021, une quinzaine de tombes sont victimes de profanation.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Stains</t>
+          <t>Cimetière_communal_de_Stains</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa surface s'élève à 30 ares 81 centiares.
-Deux concessions perpétuelles acquises par l'État contiennent les restes de soldats tués pendant la guerre de 1870, l'une pour deux Français, l'autre pour un Allemand[5].
-Il s'y trouve aussi un monument aux morts et un carré de corps restitués[6].
+Deux concessions perpétuelles acquises par l'État contiennent les restes de soldats tués pendant la guerre de 1870, l'une pour deux Français, l'autre pour un Allemand.
+Il s'y trouve aussi un monument aux morts et un carré de corps restitués.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Stains</t>
+          <t>Cimetière_communal_de_Stains</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Daniel Falempin, résistant du Front National de lutte pour la Libération, tué en août 1944. L'avenue Daniel-Falempin a été renommée en son hommage[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Daniel Falempin, résistant du Front National de lutte pour la Libération, tué en août 1944. L'avenue Daniel-Falempin a été renommée en son hommage.
 Fatima Bedar, militante indépendantiste algérienne. (tombe exhumée)</t>
         </is>
       </c>
